--- a/生活委员事宜/卫生值日分组.xlsx
+++ b/生活委员事宜/卫生值日分组.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/Note-of-seed-class/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/Note-of-seed-class/生活委员事宜/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,39 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集班费</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ban'fi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班费收集（100元）</t>
+    <rPh sb="0" eb="1">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值日</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ri</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +342,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -322,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -337,6 +382,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,23 +666,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -644,7 +704,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -653,7 +713,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -664,7 +724,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -673,7 +733,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -682,14 +742,14 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -698,75 +758,79 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -775,117 +839,115 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
+      <c r="F20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>37</v>
-      </c>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/生活委员事宜/卫生值日分组.xlsx
+++ b/生活委员事宜/卫生值日分组.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/Note-of-seed-class/生活委员事宜/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/Note-of-seed-class/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="940" windowWidth="26660" windowHeight="18180"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,14 +238,58 @@
   <si>
     <t>第三周</t>
     <rPh sb="0" eb="1">
-      <t>di'san'zhou</t>
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>san</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第四周</t>
     <rPh sb="0" eb="1">
-      <t>di'si'zhou</t>
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六周（第五周国庆）</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>liu'zhou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu'zhou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guo'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七周</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,30 +312,7 @@
       <t>shou'ji</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ban'fi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班费收集（100元）</t>
-    <rPh sb="0" eb="1">
-      <t>ban</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou'ji</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值日</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'ri</t>
+      <t>ban'fei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,7 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -375,17 +402,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -669,32 +695,26 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -704,8 +724,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -713,8 +733,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -724,8 +744,8 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -733,8 +753,8 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -742,15 +762,15 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -758,182 +778,192 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="C20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="F23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="7"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
